--- a/docs/Once-Was-Database.xlsx
+++ b/docs/Once-Was-Database.xlsx
@@ -4530,7 +4530,7 @@
   <dimension ref="A1:DF347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5987,7 +5987,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="27" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:110" ht="135" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>187</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="55" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:110" ht="90" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>208</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="84" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:110" ht="150" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>232</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="86" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:110" ht="135" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>234</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="89" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:110" ht="120" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>237</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="90" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:110" ht="90" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>238</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="106" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:110" ht="150" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>253</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="116" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:110" ht="105" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>261</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="120" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:110" ht="210" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>265</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="121" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:110" ht="120" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>266</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="162" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:109" ht="120" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>295</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="164" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:109" ht="165" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>297</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="172" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:109" ht="165" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>305</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="177" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:110" ht="240" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>310</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="207" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:106" ht="150" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>339</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="215" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:66" ht="150" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>346</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="231" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:109" ht="120" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>362</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="241" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:79" ht="75" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>370</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="267" spans="1:110" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:110" ht="90" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>390</v>
       </c>
